--- a/biology/Zoologie/Chrosiothes/Chrosiothes.xlsx
+++ b/biology/Zoologie/Chrosiothes/Chrosiothes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrosiothes est un genre d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrosiothes est un genre d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique et en Asie de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique et en Asie de l'Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 12/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 12/03/2024) :
 Chrosiothes albostriatus (Simon, 1895)
 Chrosiothes carajaensis Puchulú-Figueiredo, Santanna &amp; Rodrigues, 2017
 Chrosiothes chirica (Levi, 1954)
@@ -574,7 +590,7 @@
 Chrosiothes valmonti (Simon, 1898)
 Chrosiothes venturosus Marques &amp; Buckup, 1997
 Chrosiothes wagneri (Levi, 1954)
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Chrosiothes biconigerus Wunderlich, 1988
 † Chrosiothes chiapas Wunderlich, 2022
 † Chrosiothes curvispinosus Wunderlich, 1988
@@ -610,10 +626,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1894 dans les Theridiidae.
-Theridiotis[3] a été placé en synonymie par Levi et Levi en 1962[4].
+Theridiotis a été placé en synonymie par Levi et Levi en 1962.
 </t>
         </is>
       </c>
@@ -642,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1894 : Histoire naturelle des araignées. Paris, vol. 1, p. 489-760 (texte intégral).</t>
         </is>
